--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.9056</v>
+        <v>6.484499999999994</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.49710000000003</v>
+        <v>-21.62290000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.9013</v>
+        <v>14.01320000000001</v>
       </c>
     </row>
     <row r="5">
@@ -516,10 +516,10 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.327700000000001</v>
+        <v>5.443999999999996</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.2792</v>
+        <v>-14.22880000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -556,10 +556,10 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.842899999999989</v>
+        <v>-7.586699999999991</v>
       </c>
       <c r="E7" t="n">
-        <v>13.3932</v>
+        <v>13.34150000000001</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.70740000000001</v>
+        <v>-11.91280000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,10 +621,10 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.5318</v>
+        <v>-13.2157</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.057199999999998</v>
+        <v>-7.849399999999995</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.49509999999999</v>
+        <v>-20.46409999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.38900000000003</v>
+        <v>-21.47640000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>5.438900000000001</v>
+        <v>6.091399999999997</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -723,7 +723,7 @@
         <v>11.21</v>
       </c>
       <c r="C17" t="n">
-        <v>-11.61780000000001</v>
+        <v>-11.5436</v>
       </c>
       <c r="D17" t="n">
         <v>-6.63</v>
@@ -760,7 +760,7 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.035899999999993</v>
+        <v>-8.147799999999995</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.27390000000001</v>
+        <v>-21.24560000000002</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.00099999999999</v>
+        <v>-11.0031</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.839799999999999</v>
+        <v>-7.770399999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.40560000000002</v>
+        <v>-21.60900000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -831,7 +831,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>13.13119999999999</v>
+        <v>13.1795</v>
       </c>
     </row>
     <row r="24">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.48490000000004</v>
+        <v>-22.49340000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
